--- a/Scores/2017-09-07.xlsx
+++ b/Scores/2017-09-07.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="6550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +29,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Last Game</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -45,15 +41,15 @@
     <t>DUAN Wenqiang</t>
   </si>
   <si>
+    <t>ZHANG Mingli</t>
+  </si>
+  <si>
+    <t>XUE Shumei</t>
+  </si>
+  <si>
     <t>WU Xiaokang</t>
   </si>
   <si>
-    <t>XUE Shumei</t>
-  </si>
-  <si>
-    <t>ZHANG Mingli</t>
-  </si>
-  <si>
     <t>ZHAN Wei</t>
   </si>
   <si>
@@ -63,18 +59,18 @@
     <t>XIAO Xudong</t>
   </si>
   <si>
+    <t>BONAITI Gabriele</t>
+  </si>
+  <si>
     <t>ZHANG Ruoyu</t>
   </si>
   <si>
+    <t>QIN Song</t>
+  </si>
+  <si>
     <t>LIN Feng</t>
   </si>
   <si>
-    <t>QIN Song</t>
-  </si>
-  <si>
-    <t>BONAITI Gabriele</t>
-  </si>
-  <si>
     <t>ZHANG Yajun</t>
   </si>
   <si>
@@ -102,12 +98,12 @@
     <t>吴小康</t>
   </si>
   <si>
+    <t>张明礼</t>
+  </si>
+  <si>
     <t>薛淑梅</t>
   </si>
   <si>
-    <t>张明礼</t>
-  </si>
-  <si>
     <t>詹卫</t>
   </si>
   <si>
@@ -136,6 +132,9 @@
   </si>
   <si>
     <t>吕建强</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -143,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,31 +153,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,18 +246,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -280,14 +266,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,264 +558,263 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="9"/>
+    <col min="2" max="2" width="19.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
         <v>42981</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1837</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1836</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
         <v>42981</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>1791</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1783</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1772</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
         <v>42983</v>
       </c>
-      <c r="D6" s="9">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1753</v>
+      <c r="D7" s="7">
+        <v>1721</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>42981</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>1688</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1607</v>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1639</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="8">
+        <v>42981</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10">
-        <v>42981</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="C17" s="8">
+        <v>42985</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>42983</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>1445</v>
       </c>
     </row>
